--- a/handlers/static/export_file/export_user.xlsx
+++ b/handlers/static/export_file/export_user.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>USE</t>
   </si>
@@ -40,82 +40,19 @@
     <t>administrator</t>
   </si>
   <si>
-    <t>aaron_ming@outlook.com</t>
-  </si>
-  <si>
-    <t>xx</t>
+    <t>Aaron_ming@outlook.com</t>
+  </si>
+  <si>
+    <t>明广振</t>
   </si>
   <si>
     <t>temp user</t>
   </si>
   <si>
-    <t>xx@</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>aa@</t>
-  </si>
-  <si>
-    <t>bb</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>bb@</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>cc@</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>dd@</t>
-  </si>
-  <si>
-    <t>ee</t>
-  </si>
-  <si>
-    <t>ee@</t>
-  </si>
-  <si>
-    <t>ff</t>
-  </si>
-  <si>
-    <t>ff@</t>
-  </si>
-  <si>
-    <t>gg</t>
-  </si>
-  <si>
-    <t>gg@</t>
-  </si>
-  <si>
-    <t>zhangqiang</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>zhangqiang@qq.com</t>
-  </si>
-  <si>
-    <t>明广振</t>
-  </si>
-  <si>
-    <t>123@</t>
-  </si>
-  <si>
-    <t>张强</t>
-  </si>
-  <si>
-    <t>中国</t>
+    <t>123@x.com</t>
+  </si>
+  <si>
+    <t>小强</t>
   </si>
 </sst>
 </file>
@@ -447,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,7 +432,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -509,16 +446,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -526,16 +463,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -543,16 +480,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -560,16 +497,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -577,333 +514,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
         <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
